--- a/biology/Zoologie/Exornator_daedalma/Exornator_daedalma.xlsx
+++ b/biology/Zoologie/Exornator_daedalma/Exornator_daedalma.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Chaetodon daedalma
 Le Poisson-papillon soyeux noir (Chaetodon daedalma) est une espèce de poissons de la famille des Chaetodontidae.
@@ -512,7 +524,9 @@
           <t>Sous-genre</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le poisson-papillon soyeux noir, aussi appelé poisson-papillon fer forgé, est un poisson-papillon qui fait partie du sous-genre Lepidochaetodon. En 1984, André Maugé et Roland Bauchot ont proposé d'attribuer cette espèce au genre Exornator, ce qui donnerait comme nom scientifique pour ce poisson Exornator daedalma.
 </t>
@@ -543,7 +557,9 @@
           <t>Morphologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Taille : jusqu'à 15 cm.
 Sa coloration est gris noir, avec une bande verticale blanche et un liseré jaune à l'arrière, sur les nageoires.
@@ -575,7 +591,9 @@
           <t>Biologie et écologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un poisson corallien qui vit en bancs, assez profondément, et qui se nourrit d'algues et d'invertébrés.
 </t>
@@ -606,7 +624,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le poisson-papillon soyeux noir se rencontre dans l'océan Pacifique, vers le sud du Japon.
 </t>
